--- a/HCHNAexcelFiles/OFFICER.xlsx
+++ b/HCHNAexcelFiles/OFFICER.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
-    <t>MemID</t>
-  </si>
-  <si>
     <t>OfficerCode</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>EndDate</t>
+  </si>
+  <si>
+    <t>MemberID</t>
   </si>
 </sst>
 </file>
@@ -421,14 +421,14 @@
   <dimension ref="B1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -443,24 +443,24 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -469,14 +469,14 @@
         <v>2015</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>11</v>
@@ -485,14 +485,14 @@
         <v>2010</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>22</v>
@@ -501,14 +501,14 @@
         <v>2015</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>23</v>
@@ -517,14 +517,14 @@
         <v>2015</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>37</v>
@@ -533,14 +533,14 @@
         <v>2015</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>
@@ -549,14 +549,14 @@
         <v>2015</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>45</v>
@@ -565,13 +565,13 @@
         <v>2015</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>46</v>
@@ -580,7 +580,7 @@
         <v>2015</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>

--- a/HCHNAexcelFiles/OFFICER.xlsx
+++ b/HCHNAexcelFiles/OFFICER.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DB1810\DataSoup\HCHNAexcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Volk\Documents\GitHub\DataSoup\HCHNAexcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L59"/>
+  <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -432,16 +432,12 @@
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -471,10 +467,10 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -487,10 +483,10 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -503,10 +499,10 @@
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -519,10 +515,10 @@
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -535,10 +531,10 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -551,10 +547,10 @@
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -567,9 +563,9 @@
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -582,18 +578,15 @@
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="H1:J9">
-    <sortCondition ref="J2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/HCHNAexcelFiles/OFFICER.xlsx
+++ b/HCHNAexcelFiles/OFFICER.xlsx
@@ -125,19 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -432,12 +422,10 @@
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -467,10 +455,8 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -483,10 +469,8 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -499,10 +483,8 @@
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -515,10 +497,8 @@
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -531,10 +511,8 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -547,10 +525,8 @@
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -563,9 +539,8 @@
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -578,12 +553,6 @@
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
     </row>
     <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
